--- a/demetr-main/demetr_scores_paper.xlsx
+++ b/demetr-main/demetr_scores_paper.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Miriam Anschütz\Documents\workspaces\PyCharm projects\negation_aware_evaluation\demetr-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E5039E-ED4F-4B59-AE29-FCE5781DAC22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -263,7 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,10 +299,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2F3AA1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -575,21 +581,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -650,11 +656,11 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I2">
-        <f>(G2-E2)/E2</f>
+        <f t="shared" ref="I2:I34" si="0">(G2-E2)/E2</f>
         <v>-0.81304347826086953</v>
       </c>
       <c r="J2">
-        <f>(H2-E2)/E2</f>
+        <f t="shared" ref="J2:J34" si="1">(H2-E2)/E2</f>
         <v>-0.90869565217391313</v>
       </c>
     </row>
@@ -684,11 +690,11 @@
         <v>1.4890000000000001</v>
       </c>
       <c r="I3">
-        <f>(G3-E3)/E3</f>
+        <f t="shared" si="0"/>
         <v>0.79506172839506151</v>
       </c>
       <c r="J3">
-        <f>(H3-E3)/E3</f>
+        <f t="shared" si="1"/>
         <v>0.83827160493827158</v>
       </c>
     </row>
@@ -718,11 +724,11 @@
         <v>0.122</v>
       </c>
       <c r="I4">
-        <f>(G4-E4)/E4</f>
+        <f t="shared" si="0"/>
         <v>0.16923076923076916</v>
       </c>
       <c r="J4">
-        <f>(H4-E4)/E4</f>
+        <f t="shared" si="1"/>
         <v>0.87692307692307681</v>
       </c>
     </row>
@@ -752,11 +758,11 @@
         <v>0.253</v>
       </c>
       <c r="I5">
-        <f>(G5-E5)/E5</f>
+        <f t="shared" si="0"/>
         <v>-0.27272727272727265</v>
       </c>
       <c r="J5">
-        <f>(H5-E5)/E5</f>
+        <f t="shared" si="1"/>
         <v>1.8750000000000002</v>
       </c>
     </row>
@@ -786,11 +792,11 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="I6">
-        <f>(G6-E6)/E6</f>
+        <f t="shared" si="0"/>
         <v>3.51</v>
       </c>
       <c r="J6">
-        <f>(H6-E6)/E6</f>
+        <f t="shared" si="1"/>
         <v>4.13</v>
       </c>
     </row>
@@ -820,11 +826,11 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I7">
-        <f>(G7-E7)/E7</f>
+        <f t="shared" si="0"/>
         <v>-0.78999999999999992</v>
       </c>
       <c r="J7">
-        <f>(H7-E7)/E7</f>
+        <f t="shared" si="1"/>
         <v>-0.72000000000000008</v>
       </c>
     </row>
@@ -854,11 +860,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I8">
-        <f>(G8-E8)/E8</f>
+        <f t="shared" si="0"/>
         <v>-0.29333333333333333</v>
       </c>
       <c r="J8">
-        <f>(H8-E8)/E8</f>
+        <f t="shared" si="1"/>
         <v>-6.6666666666666541E-2</v>
       </c>
     </row>
@@ -888,11 +894,11 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="I9">
-        <f>(G9-E9)/E9</f>
+        <f t="shared" si="0"/>
         <v>0.27999999999999997</v>
       </c>
       <c r="J9">
-        <f>(H9-E9)/E9</f>
+        <f t="shared" si="1"/>
         <v>0.72499999999999976</v>
       </c>
     </row>
@@ -922,11 +928,11 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="I10">
-        <f>(G10-E10)/E10</f>
+        <f t="shared" si="0"/>
         <v>2.8733333333333331</v>
       </c>
       <c r="J10">
-        <f>(H10-E10)/E10</f>
+        <f t="shared" si="1"/>
         <v>3.0933333333333333</v>
       </c>
     </row>
@@ -956,11 +962,11 @@
         <v>0.124</v>
       </c>
       <c r="I11">
-        <f>(G11-E11)/E11</f>
+        <f t="shared" si="0"/>
         <v>-7.142857142857148E-2</v>
       </c>
       <c r="J11">
-        <f>(H11-E11)/E11</f>
+        <f t="shared" si="1"/>
         <v>-0.11428571428571438</v>
       </c>
     </row>
@@ -990,11 +996,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="I12">
-        <f>(G12-E12)/E12</f>
+        <f t="shared" si="0"/>
         <v>-3.8461538461538367E-2</v>
       </c>
       <c r="J12">
-        <f>(H12-E12)/E12</f>
+        <f t="shared" si="1"/>
         <v>0.11538461538461549</v>
       </c>
     </row>
@@ -1024,11 +1030,11 @@
         <v>0.08</v>
       </c>
       <c r="I13">
-        <f>(G13-E13)/E13</f>
+        <f t="shared" si="0"/>
         <v>1.2765957446808509</v>
       </c>
       <c r="J13">
-        <f>(H13-E13)/E13</f>
+        <f t="shared" si="1"/>
         <v>0.7021276595744681</v>
       </c>
     </row>
@@ -1058,11 +1064,11 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="I14">
-        <f>(G14-E14)/E14</f>
+        <f t="shared" si="0"/>
         <v>2.3076923076923096E-2</v>
       </c>
       <c r="J14">
-        <f>(H14-E14)/E14</f>
+        <f t="shared" si="1"/>
         <v>6.153846153846159E-2</v>
       </c>
     </row>
@@ -1092,11 +1098,11 @@
         <v>0.1</v>
       </c>
       <c r="I15">
-        <f>(G15-E15)/E15</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333419E-3</v>
       </c>
       <c r="J15">
-        <f>(H15-E15)/E15</f>
+        <f t="shared" si="1"/>
         <v>-0.1666666666666666</v>
       </c>
     </row>
@@ -1126,11 +1132,11 @@
         <v>1.95E-2</v>
       </c>
       <c r="I16">
-        <f>(G16-E16)/E16</f>
+        <f t="shared" si="0"/>
         <v>-0.56666666666666676</v>
       </c>
       <c r="J16">
-        <f>(H16-E16)/E16</f>
+        <f t="shared" si="1"/>
         <v>-0.35</v>
       </c>
     </row>
@@ -1160,11 +1166,11 @@
         <v>0.108</v>
       </c>
       <c r="I17">
-        <f>(G17-E17)/E17</f>
+        <f t="shared" si="0"/>
         <v>-0.24489795918367355</v>
       </c>
       <c r="J17">
-        <f>(H17-E17)/E17</f>
+        <f t="shared" si="1"/>
         <v>1.204081632653061</v>
       </c>
     </row>
@@ -1194,11 +1200,11 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="I18">
-        <f>(G18-E18)/E18</f>
+        <f t="shared" si="0"/>
         <v>1.8181818181818198E-2</v>
       </c>
       <c r="J18">
-        <f>(H18-E18)/E18</f>
+        <f t="shared" si="1"/>
         <v>0.24545454545454554</v>
       </c>
     </row>
@@ -1228,11 +1234,11 @@
         <v>0.193</v>
       </c>
       <c r="I19">
-        <f>(G19-E19)/E19</f>
+        <f t="shared" si="0"/>
         <v>2.932432432432432</v>
       </c>
       <c r="J19">
-        <f>(H19-E19)/E19</f>
+        <f t="shared" si="1"/>
         <v>1.6081081081081083</v>
       </c>
     </row>
@@ -1262,11 +1268,11 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="I20">
-        <f>(G20-E20)/E20</f>
+        <f t="shared" si="0"/>
         <v>0.1176470588235293</v>
       </c>
       <c r="J20">
-        <f>(H20-E20)/E20</f>
+        <f t="shared" si="1"/>
         <v>-2.9411764705882377E-2</v>
       </c>
     </row>
@@ -1296,11 +1302,11 @@
         <v>2.3E-2</v>
       </c>
       <c r="I21">
-        <f>(G21-E21)/E21</f>
+        <f t="shared" si="0"/>
         <v>-0.8867924528301887</v>
       </c>
       <c r="J21">
-        <f>(H21-E21)/E21</f>
+        <f t="shared" si="1"/>
         <v>-0.56603773584905659</v>
       </c>
     </row>
@@ -1330,11 +1336,11 @@
         <v>0.245</v>
       </c>
       <c r="I22">
-        <f>(G22-E22)/E22</f>
+        <f t="shared" si="0"/>
         <v>2.9661016949152548</v>
       </c>
       <c r="J22">
-        <f>(H22-E22)/E22</f>
+        <f t="shared" si="1"/>
         <v>3.152542372881356</v>
       </c>
     </row>
@@ -1364,11 +1370,11 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I23">
-        <f>(G23-E23)/E23</f>
+        <f t="shared" si="0"/>
         <v>5.8823529411764761E-2</v>
       </c>
       <c r="J23">
-        <f>(H23-E23)/E23</f>
+        <f t="shared" si="1"/>
         <v>-0.66666666666666663</v>
       </c>
     </row>
@@ -1398,11 +1404,11 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f>(G24-E24)/E24</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="J24">
-        <f>(H24-E24)/E24</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -1432,11 +1438,11 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f>(G25-E25)/E25</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="J25">
-        <f>(H25-E25)/E25</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -1466,11 +1472,11 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I26">
-        <f>(G26-E26)/E26</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="J26">
-        <f>(H26-E26)/E26</f>
+        <f t="shared" si="1"/>
         <v>-0.12499999999999996</v>
       </c>
     </row>
@@ -1500,11 +1506,11 @@
         <v>0.29599999999999999</v>
       </c>
       <c r="I27">
-        <f>(G27-E27)/E27</f>
+        <f t="shared" si="0"/>
         <v>3.4464285714285716</v>
       </c>
       <c r="J27">
-        <f>(H27-E27)/E27</f>
+        <f t="shared" si="1"/>
         <v>4.2857142857142856</v>
       </c>
     </row>
@@ -1534,11 +1540,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="I28">
-        <f>(G28-E28)/E28</f>
+        <f t="shared" si="0"/>
         <v>0.71739130434782616</v>
       </c>
       <c r="J28">
-        <f>(H28-E28)/E28</f>
+        <f t="shared" si="1"/>
         <v>0.45652173913043487</v>
       </c>
     </row>
@@ -1568,11 +1574,11 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="I29">
-        <f>(G29-E29)/E29</f>
+        <f t="shared" si="0"/>
         <v>2.0727272727272732</v>
       </c>
       <c r="J29">
-        <f>(H29-E29)/E29</f>
+        <f t="shared" si="1"/>
         <v>0.3454545454545454</v>
       </c>
     </row>
@@ -1602,11 +1608,11 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="I30">
-        <f>(G30-E30)/E30</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="J30">
-        <f>(H30-E30)/E30</f>
+        <f t="shared" si="1"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -1636,11 +1642,11 @@
         <v>1.4E-2</v>
       </c>
       <c r="I31">
-        <f>(G31-E31)/E31</f>
+        <f t="shared" si="0"/>
         <v>-1.2804878048780488</v>
       </c>
       <c r="J31">
-        <f>(H31-E31)/E31</f>
+        <f t="shared" si="1"/>
         <v>-0.8292682926829269</v>
       </c>
     </row>
@@ -1670,11 +1676,11 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="I32">
-        <f>(G32-E32)/E32</f>
+        <f t="shared" si="0"/>
         <v>-1.2705882352941178</v>
       </c>
       <c r="J32">
-        <f>(H32-E32)/E32</f>
+        <f t="shared" si="1"/>
         <v>-0.78823529411764703</v>
       </c>
     </row>
@@ -1704,11 +1710,11 @@
         <v>2E-3</v>
       </c>
       <c r="I33">
-        <f>(G33-E33)/E33</f>
+        <f t="shared" si="0"/>
         <v>-0.98113207547169812</v>
       </c>
       <c r="J33">
-        <f>(H33-E33)/E33</f>
+        <f t="shared" si="1"/>
         <v>-0.96226415094339623</v>
       </c>
     </row>
@@ -1738,11 +1744,11 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <f>(G34-E34)/E34</f>
+        <f t="shared" si="0"/>
         <v>-0.90804597701149414</v>
       </c>
       <c r="J34">
-        <f>(H34-E34)/E34</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -1776,7 +1782,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I34">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1788,7 +1794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J34">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1799,6 +1805,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color rgb="FF2F3AA1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:H20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color rgb="FF2F3AA1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/demetr-main/demetr_scores_paper.xlsx
+++ b/demetr-main/demetr_scores_paper.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Miriam Anschütz\Documents\workspaces\PyCharm projects\negation_aware_evaluation\demetr-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E5039E-ED4F-4B59-AE29-FCE5781DAC22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>shuffled</t>
   </si>
@@ -255,16 +254,22 @@
     <t>bleurt_1000</t>
   </si>
   <si>
-    <t>perc_improved_500</t>
-  </si>
-  <si>
-    <t>perc_improved_1000</t>
+    <t>all-mpnet-base-v2</t>
+  </si>
+  <si>
+    <t>all-mpnet-base-v2_negation</t>
+  </si>
+  <si>
+    <t>bleurt_antonym_1000</t>
+  </si>
+  <si>
+    <t>all-mpnet-base-v2_negation_wmt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,12 +304,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF616CD1"/>
       <color rgb="FF2F3AA1"/>
     </mruColors>
   </colors>
@@ -581,24 +587,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="19.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -611,26 +615,32 @@
       <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -643,28 +653,32 @@
       <c r="D2">
         <v>1.7</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.46</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I34" si="0">(G2-E2)/E2</f>
-        <v>-0.81304347826086953</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J34" si="1">(H2-E2)/E2</f>
-        <v>-0.90869565217391313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -677,28 +691,32 @@
       <c r="D3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.81</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.2330000000000001</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1.454</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>1.4890000000000001</v>
       </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>0.79506172839506151</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="1"/>
-        <v>0.83827160493827158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -711,28 +729,32 @@
       <c r="D4">
         <v>0.12</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.122</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.16923076923076916</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>0.87692307692307681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -745,28 +767,32 @@
       <c r="D5">
         <v>0.15</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.15</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.253</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>-0.27272727272727265</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>1.8750000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -779,28 +805,32 @@
       <c r="D6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.33100000000000002</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.51300000000000001</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>3.51</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -813,28 +843,32 @@
       <c r="D7">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>-0.78999999999999992</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>-0.72000000000000008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -847,28 +881,32 @@
       <c r="D8">
         <v>0.31</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.15</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>9.98E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.106</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>-0.29333333333333333</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>-6.6666666666666541E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -881,28 +919,32 @@
       <c r="D9">
         <v>0.37</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.22800000000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.34499999999999997</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0.72499999999999976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -915,28 +957,32 @@
       <c r="D10">
         <v>0.21</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.15</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.33200000000000002</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.58099999999999996</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.61399999999999999</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>2.8733333333333331</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>3.0933333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.499</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -949,28 +995,32 @@
       <c r="D11">
         <v>0.25</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>0.13</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>0.124</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>-7.142857142857148E-2</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>-0.11428571428571438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -983,28 +1033,32 @@
       <c r="D12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0.05</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>-3.8461538461538367E-2</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0.11538461538461549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1017,28 +1071,32 @@
       <c r="D13">
         <v>0.1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4.7E-2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>0.107</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>0.08</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>1.2765957446808509</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>0.7021276595744681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1051,28 +1109,32 @@
       <c r="D14">
         <v>0.25</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.13</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>0.13300000000000001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>0.13800000000000001</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>2.3076923076923096E-2</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>6.153846153846159E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1085,28 +1147,32 @@
       <c r="D15">
         <v>0.21</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.12</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>0.121</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>0.1</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333419E-3</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>-0.1666666666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1119,28 +1185,32 @@
       <c r="D16">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.03</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>1.95E-2</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>-0.56666666666666676</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1153,28 +1223,32 @@
       <c r="D17">
         <v>0.12</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.08</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>0.108</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>-0.24489795918367355</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>1.204081632653061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1187,28 +1261,32 @@
       <c r="D18">
         <v>0.25</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.11</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>0.11799999999999999</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>0.112</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>1.8181818181818198E-2</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0.24545454545454554</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="L18" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1221,28 +1299,32 @@
       <c r="D19">
         <v>0.26</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>0.11899999999999999</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>0.29099999999999998</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>0.193</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>2.932432432432432</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>1.6081081081081083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N19" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1255,28 +1337,32 @@
       <c r="D20">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>0.1176470588235293</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>-2.9411764705882377E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1289,28 +1375,32 @@
       <c r="D21">
         <v>0.16</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>-0.8867924528301887</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>-0.56603773584905659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1323,28 +1413,32 @@
       <c r="D22">
         <v>0.25</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>0.152</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>0.23400000000000001</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>0.245</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>2.9661016949152548</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>3.152542372881356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1357,28 +1451,32 @@
       <c r="D23">
         <v>0.15</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764761E-2</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>-0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1391,28 +1489,32 @@
       <c r="D24">
         <v>0.11</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1425,28 +1527,32 @@
       <c r="D25">
         <v>0.33</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1459,28 +1565,32 @@
       <c r="D26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
       <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>-0.12499999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1493,28 +1603,32 @@
       <c r="D27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>0.17799999999999999</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>0.249</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>0.29599999999999999</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>3.4464285714285716</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>4.2857142857142856</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1527,28 +1641,32 @@
       <c r="D28">
         <v>0.17</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>0.71739130434782616</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>0.45652173913043487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1561,28 +1679,32 @@
       <c r="D29">
         <v>0.19</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>5.5E-2</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>0.16900000000000001</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>2.0727272727272732</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>0.3454545454545454</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="N29" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1595,28 +1717,32 @@
       <c r="D30">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>1.2857142857142858</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1629,28 +1755,32 @@
       <c r="D31">
         <v>0.11</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>-2.3E-2</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>-1.2804878048780488</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>-0.8292682926829269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N31" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1663,28 +1793,32 @@
       <c r="D32">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.17</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>-1.2705882352941178</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>-0.78823529411764703</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1697,28 +1831,32 @@
       <c r="D33">
         <v>0.26</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1E-3</v>
       </c>
       <c r="G33" s="1">
         <v>1E-3</v>
       </c>
       <c r="H33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I33" s="1">
         <v>2E-3</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>-0.98113207547169812</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>-0.96226415094339623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1731,82 +1869,86 @@
       <c r="D34">
         <v>0.24</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
       <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>-0.90804597701149414</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M34" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
       <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>-0.42799999999999999</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>-2.339</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>-0.82299999999999995</v>
       </c>
+      <c r="J36" s="1">
+        <v>-0.77700000000000002</v>
+      </c>
+      <c r="L36">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="M36">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="N36">
+        <v>-0.126</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I34">
+  <conditionalFormatting sqref="C2:N36">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J34">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E20">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1815,8 +1957,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:H20">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="L21:M25">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1825,6 +1967,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2:N34">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color rgb="FF616CD1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>